--- a/doc/Final Results/Resnet18_CIFAR10_PS2.xlsx
+++ b/doc/Final Results/Resnet18_CIFAR10_PS2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoim\Desktop\Course\Project 2\doc\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoim\Desktop\Course\Project 2\doc\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,9 +48,6 @@
     <t>Initial Accuracy</t>
   </si>
   <si>
-    <t>Base Line:</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -2122,6 +2119,9 @@
   </si>
   <si>
     <t>[8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9]</t>
+  </si>
+  <si>
+    <t>Base Line</t>
   </si>
 </sst>
 </file>
@@ -3422,8 +3422,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.3438777375620313E-2"/>
           <c:y val="0.14915818449523077"/>
-          <c:w val="0.8754801369499623"/>
-          <c:h val="0.76725043515901981"/>
+          <c:w val="0.6701810124961608"/>
+          <c:h val="0.75545664516402633"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7974,7 +7974,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Base Line:</c:v>
+                  <c:v>Base Line</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8316,7 +8316,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78396288847630502"/>
+          <c:y val="0.29323113349544283"/>
+          <c:w val="0.14621270716232135"/>
+          <c:h val="0.43219084402003571"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9541,16 +9550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>182881</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>501537</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>221674</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>29095</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9991,8 +10000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10033,10 +10042,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>90</v>
@@ -10044,7 +10053,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0.23504</v>
@@ -10052,7 +10061,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f>B3-C5</f>
@@ -10061,19 +10070,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10185,24 +10194,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>16.5</v>
@@ -10219,7 +10228,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>16.5</v>
@@ -10236,7 +10245,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>17.2</v>
@@ -10253,7 +10262,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>16.399999999999999</v>
@@ -10270,7 +10279,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>16.100000000000001</v>
@@ -10287,7 +10296,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>16.3</v>
@@ -10304,7 +10313,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>16.3</v>
@@ -10321,7 +10330,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>16.8</v>
@@ -10338,7 +10347,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>17.8</v>
@@ -10355,7 +10364,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -10372,7 +10381,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>18.5</v>
@@ -10389,7 +10398,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>18.5</v>
@@ -10406,7 +10415,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>18.899999999999999</v>
@@ -10423,7 +10432,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>18.5</v>
@@ -10440,7 +10449,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>19.2</v>
@@ -10457,7 +10466,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -10474,7 +10483,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -10491,7 +10500,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>20.8</v>
@@ -10508,7 +10517,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>21.6</v>
@@ -10525,7 +10534,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>21.9</v>
@@ -10542,7 +10551,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>21.7</v>
@@ -10559,7 +10568,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>21.4</v>
@@ -10576,7 +10585,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>21.2</v>
@@ -10593,7 +10602,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>20.399999999999999</v>
@@ -10610,7 +10619,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>20.100000000000001</v>
@@ -10627,7 +10636,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>21</v>
@@ -10644,7 +10653,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>20.8</v>
@@ -10661,7 +10670,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>20.6</v>
@@ -10678,7 +10687,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>19.399999999999999</v>
@@ -10695,7 +10704,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>19.5</v>
@@ -10712,7 +10721,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>19.8</v>
@@ -10729,7 +10738,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>19.8</v>
@@ -10746,7 +10755,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>21.4</v>
@@ -10763,7 +10772,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>22.1</v>
@@ -10780,7 +10789,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>22.7</v>
@@ -10797,7 +10806,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>23.1</v>
@@ -10814,7 +10823,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>24.1</v>
@@ -10831,7 +10840,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>25.1</v>
@@ -10848,7 +10857,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>24.5</v>
@@ -10865,7 +10874,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>25.4</v>
@@ -10882,7 +10891,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>25.3</v>
@@ -10899,7 +10908,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43">
         <v>25.6</v>
@@ -10916,7 +10925,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>24.7</v>
@@ -10933,7 +10942,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>25.5</v>
@@ -10950,7 +10959,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>25.7</v>
@@ -10967,7 +10976,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>25.8</v>
@@ -10984,7 +10993,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>26</v>
@@ -11001,7 +11010,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>26.1</v>
@@ -11018,7 +11027,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50">
         <v>26.1</v>
@@ -11035,7 +11044,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>26</v>
@@ -11052,7 +11061,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>26.1</v>
@@ -11069,7 +11078,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>26.1</v>
@@ -11086,7 +11095,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54">
         <v>26.1</v>
@@ -11103,7 +11112,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>24.6</v>
@@ -11120,7 +11129,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>24.4</v>
@@ -11137,7 +11146,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57">
         <v>25.8</v>
@@ -11154,7 +11163,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>25.5</v>
@@ -11171,7 +11180,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59">
         <v>24.7</v>
@@ -11188,7 +11197,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60">
         <v>25.8</v>
@@ -11205,7 +11214,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61">
         <v>25.6</v>
@@ -11222,7 +11231,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62">
         <v>25.2</v>
@@ -11239,7 +11248,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63">
         <v>26.3</v>
@@ -11256,7 +11265,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64">
         <v>27.5</v>
@@ -11273,7 +11282,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>28.6</v>
@@ -11290,7 +11299,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>28.8</v>
@@ -11307,7 +11316,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>28.6</v>
@@ -11324,7 +11333,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68">
         <v>28.9</v>
@@ -11341,7 +11350,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>28.8</v>
@@ -11358,7 +11367,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>28.8</v>
@@ -11375,7 +11384,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>29.7</v>
@@ -11392,7 +11401,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>30</v>
@@ -11409,7 +11418,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>30.3</v>
@@ -11426,7 +11435,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74">
         <v>32.200000000000003</v>
@@ -11443,7 +11452,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75">
         <v>31.8</v>
@@ -11460,7 +11469,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76">
         <v>31.3</v>
@@ -11477,7 +11486,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77">
         <v>37</v>
@@ -11494,7 +11503,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78">
         <v>37.700000000000003</v>
@@ -11511,7 +11520,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79">
         <v>38.9</v>
@@ -11528,7 +11537,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80">
         <v>39.4</v>
@@ -11545,7 +11554,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81">
         <v>37.6</v>
@@ -11562,7 +11571,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82">
         <v>37.1</v>
@@ -11579,7 +11588,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83">
         <v>35.200000000000003</v>
@@ -11596,7 +11605,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>45.4</v>
@@ -11613,7 +11622,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B85">
         <v>41.1</v>
@@ -11630,7 +11639,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86">
         <v>46.4</v>
@@ -11647,7 +11656,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87">
         <v>49.8</v>
@@ -11664,7 +11673,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88">
         <v>49.5</v>
@@ -11681,7 +11690,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89">
         <v>49.4</v>
@@ -11698,7 +11707,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90">
         <v>49.9</v>
@@ -11715,7 +11724,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91">
         <v>53.3</v>
@@ -11732,7 +11741,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92">
         <v>53.2</v>
@@ -11749,7 +11758,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93">
         <v>52.5</v>
@@ -11766,7 +11775,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94">
         <v>52.6</v>
@@ -11783,7 +11792,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B95">
         <v>52.6</v>
@@ -11800,7 +11809,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96">
         <v>55.2</v>
@@ -11817,7 +11826,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97">
         <v>55.3</v>
@@ -11834,7 +11843,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98">
         <v>55.6</v>
@@ -11851,7 +11860,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99">
         <v>56.9</v>
@@ -11868,7 +11877,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100">
         <v>57</v>
@@ -11885,7 +11894,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101">
         <v>57.5</v>
@@ -11902,7 +11911,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102">
         <v>57.5</v>
@@ -11919,7 +11928,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103">
         <v>58.2</v>
@@ -11936,7 +11945,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104">
         <v>59</v>
@@ -11953,7 +11962,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105">
         <v>58.4</v>
@@ -11970,7 +11979,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106">
         <v>62.6</v>
@@ -11987,7 +11996,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107">
         <v>63.5</v>
@@ -12004,7 +12013,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108">
         <v>65.400000000000006</v>
@@ -12021,7 +12030,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109">
         <v>67.5</v>
@@ -12038,7 +12047,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110">
         <v>66.599999999999994</v>
@@ -12055,7 +12064,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111">
         <v>68.099999999999994</v>
@@ -12072,7 +12081,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112">
         <v>66.400000000000006</v>
@@ -12089,7 +12098,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113">
         <v>67.2</v>
@@ -12106,7 +12115,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114">
         <v>73.3</v>
@@ -12123,7 +12132,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115">
         <v>73.8</v>
@@ -12140,7 +12149,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116">
         <v>79</v>
@@ -12157,7 +12166,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B117">
         <v>81.900000000000006</v>
@@ -12174,7 +12183,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118">
         <v>82.3</v>
@@ -12191,7 +12200,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119">
         <v>82.2</v>
@@ -12208,7 +12217,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B120">
         <v>82.6</v>
@@ -12225,7 +12234,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121">
         <v>82.7</v>
@@ -12242,7 +12251,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122">
         <v>82.3</v>
@@ -12259,7 +12268,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123">
         <v>82.7</v>
@@ -12276,7 +12285,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B124">
         <v>83.3</v>
@@ -12293,7 +12302,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125">
         <v>82.8</v>
@@ -12310,7 +12319,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126">
         <v>86.5</v>
@@ -12327,7 +12336,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127">
         <v>87.2</v>
@@ -12344,7 +12353,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128">
         <v>86.3</v>
@@ -12361,7 +12370,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B129">
         <v>85.9</v>
@@ -12378,7 +12387,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B130">
         <v>86.1</v>
@@ -12395,7 +12404,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131">
         <v>86.6</v>
@@ -12412,7 +12421,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132">
         <v>86.7</v>
@@ -12429,7 +12438,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B133">
         <v>86.3</v>
@@ -12446,7 +12455,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B134">
         <v>86.6</v>
@@ -12463,7 +12472,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B135">
         <v>87.9</v>
@@ -12480,7 +12489,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136">
         <v>88</v>
@@ -12497,7 +12506,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137">
         <v>87.9</v>
@@ -12514,7 +12523,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138">
         <v>89.1</v>
@@ -12531,7 +12540,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139">
         <v>88.8</v>
@@ -12548,7 +12557,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140">
         <v>88.9</v>
@@ -12565,7 +12574,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B141">
         <v>89</v>
@@ -12582,7 +12591,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142">
         <v>88.9</v>
@@ -12599,7 +12608,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B143">
         <v>89</v>
@@ -12616,7 +12625,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144">
         <v>88.9</v>
@@ -12633,7 +12642,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145">
         <v>89.4</v>
@@ -12650,7 +12659,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B146">
         <v>88.9</v>
@@ -12667,7 +12676,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B147">
         <v>89.1</v>
@@ -12684,7 +12693,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B148">
         <v>89.1</v>
@@ -12701,7 +12710,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B149">
         <v>89</v>
@@ -12718,7 +12727,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150">
         <v>89.2</v>
@@ -12735,7 +12744,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151">
         <v>89.1</v>
@@ -12752,7 +12761,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B152">
         <v>89.9</v>
@@ -12769,7 +12778,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B153">
         <v>90.1</v>
@@ -12786,7 +12795,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B154">
         <v>89.4</v>
@@ -12803,7 +12812,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B155">
         <v>89.8</v>
@@ -12820,7 +12829,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B156">
         <v>89.7</v>
@@ -12837,7 +12846,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157">
         <v>89.8</v>
@@ -12854,7 +12863,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B158">
         <v>89.7</v>
@@ -12871,7 +12880,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159">
         <v>90.1</v>
@@ -12888,7 +12897,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B160">
         <v>90.2</v>
@@ -12905,7 +12914,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161">
         <v>90.2</v>
@@ -12922,7 +12931,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B162">
         <v>89.7</v>
@@ -12939,7 +12948,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B163">
         <v>90.4</v>
@@ -12956,7 +12965,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B164">
         <v>90.5</v>
@@ -12973,7 +12982,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B165">
         <v>89.8</v>
@@ -12990,7 +12999,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B166">
         <v>90.8</v>
@@ -13007,7 +13016,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B167">
         <v>90.8</v>
@@ -13024,7 +13033,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B168">
         <v>90.9</v>
@@ -13041,7 +13050,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B169">
         <v>91.1</v>
@@ -13058,7 +13067,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B170">
         <v>91.3</v>
@@ -13075,7 +13084,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B171">
         <v>91</v>
@@ -13092,7 +13101,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B172">
         <v>91.4</v>
@@ -13109,7 +13118,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B173">
         <v>91.4</v>
@@ -13126,7 +13135,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B174">
         <v>91.2</v>
@@ -13143,7 +13152,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B175">
         <v>91.3</v>
@@ -13160,7 +13169,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B176">
         <v>91.1</v>
@@ -13177,7 +13186,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B177">
         <v>91.6</v>
@@ -13194,7 +13203,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B178">
         <v>91.9</v>
@@ -13211,7 +13220,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B179">
         <v>92.2</v>
@@ -13228,7 +13237,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B180">
         <v>92.7</v>
@@ -13245,7 +13254,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B181">
         <v>92.8</v>
@@ -13262,7 +13271,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B182">
         <v>93.4</v>
@@ -13279,7 +13288,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B183">
         <v>93.7</v>
@@ -13296,7 +13305,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B184">
         <v>93.5</v>
@@ -13313,7 +13322,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B185">
         <v>93.5</v>
@@ -13330,7 +13339,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B186">
         <v>94</v>
@@ -13347,7 +13356,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B187">
         <v>93.7</v>
@@ -13364,7 +13373,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B188">
         <v>93.6</v>
@@ -13381,7 +13390,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B189">
         <v>93.5</v>
@@ -13413,7 +13422,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>19.7</v>
@@ -13430,7 +13439,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -13447,7 +13456,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3">
         <v>19.5</v>
@@ -13464,7 +13473,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4">
         <v>19.3</v>
@@ -13481,7 +13490,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5">
         <v>19.7</v>
@@ -13498,7 +13507,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6">
         <v>19.600000000000001</v>
@@ -13515,7 +13524,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -13532,7 +13541,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8">
         <v>20.5</v>
@@ -13549,7 +13558,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9">
         <v>21.5</v>
@@ -13566,7 +13575,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10">
         <v>20.8</v>
@@ -13583,7 +13592,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11">
         <v>21.5</v>
@@ -13600,7 +13609,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12">
         <v>21.9</v>
@@ -13617,7 +13626,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13">
         <v>20.7</v>
@@ -13634,7 +13643,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14">
         <v>20.7</v>
@@ -13651,7 +13660,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15">
         <v>20.7</v>
@@ -13668,7 +13677,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16">
         <v>20.7</v>
@@ -13685,7 +13694,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17">
         <v>20.6</v>
@@ -13702,7 +13711,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18">
         <v>20.6</v>
@@ -13719,7 +13728,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19">
         <v>20.6</v>
@@ -13736,7 +13745,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20">
         <v>20.100000000000001</v>
@@ -13753,7 +13762,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21">
         <v>20.3</v>
@@ -13770,7 +13779,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22">
         <v>19.8</v>
@@ -13787,7 +13796,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23">
         <v>20.2</v>
@@ -13804,7 +13813,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24">
         <v>20.2</v>
@@ -13821,7 +13830,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25">
         <v>20.8</v>
@@ -13838,7 +13847,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26">
         <v>20.399999999999999</v>
@@ -13855,7 +13864,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27">
         <v>20.399999999999999</v>
@@ -13872,7 +13881,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28">
         <v>20.5</v>
@@ -13889,7 +13898,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29">
         <v>21.8</v>
@@ -13906,7 +13915,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30">
         <v>22.2</v>
@@ -13923,7 +13932,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31">
         <v>21.2</v>
@@ -13940,7 +13949,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32">
         <v>21.5</v>
@@ -13957,7 +13966,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33">
         <v>26.1</v>
@@ -13974,7 +13983,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B34">
         <v>24.9</v>
@@ -13991,7 +14000,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35">
         <v>25.6</v>
@@ -14008,7 +14017,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B36">
         <v>24.4</v>
@@ -14025,7 +14034,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B37">
         <v>26.1</v>
@@ -14042,7 +14051,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38">
         <v>22.6</v>
@@ -14059,7 +14068,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39">
         <v>25.5</v>
@@ -14076,7 +14085,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B40">
         <v>25.5</v>
@@ -14093,7 +14102,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B41">
         <v>25.5</v>
@@ -14110,7 +14119,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B42">
         <v>25.5</v>
@@ -14127,7 +14136,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43">
         <v>25.5</v>
@@ -14144,7 +14153,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B44">
         <v>25.5</v>
@@ -14161,7 +14170,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45">
         <v>25.4</v>
@@ -14178,7 +14187,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46">
         <v>26.5</v>
@@ -14195,7 +14204,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47">
         <v>26.5</v>
@@ -14212,7 +14221,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B48">
         <v>27</v>
@@ -14229,7 +14238,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B49">
         <v>27.5</v>
@@ -14246,7 +14255,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B50">
         <v>26.9</v>
@@ -14263,7 +14272,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51">
         <v>28.1</v>
@@ -14280,7 +14289,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B52">
         <v>28.2</v>
@@ -14297,7 +14306,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B53">
         <v>24.1</v>
@@ -14314,7 +14323,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B54">
         <v>28.1</v>
@@ -14331,7 +14340,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B55">
         <v>24.3</v>
@@ -14348,7 +14357,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B56">
         <v>28.3</v>
@@ -14365,7 +14374,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B57">
         <v>28.4</v>
@@ -14382,7 +14391,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B58">
         <v>28.1</v>
@@ -14399,7 +14408,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B59">
         <v>28.7</v>
@@ -14416,7 +14425,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B60">
         <v>28.6</v>
@@ -14433,7 +14442,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B61">
         <v>29.4</v>
@@ -14450,7 +14459,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B62">
         <v>29.4</v>
@@ -14467,7 +14476,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B63">
         <v>30.6</v>
@@ -14484,7 +14493,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B64">
         <v>30.1</v>
@@ -14501,7 +14510,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B65">
         <v>30.9</v>
@@ -14518,7 +14527,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B66">
         <v>37.4</v>
@@ -14535,7 +14544,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B67">
         <v>37.299999999999997</v>
@@ -14552,7 +14561,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B68">
         <v>36.6</v>
@@ -14569,7 +14578,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B69">
         <v>38.1</v>
@@ -14586,7 +14595,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B70">
         <v>37.200000000000003</v>
@@ -14603,7 +14612,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B71">
         <v>40.1</v>
@@ -14620,7 +14629,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72">
         <v>41.7</v>
@@ -14637,7 +14646,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73">
         <v>39.299999999999997</v>
@@ -14654,7 +14663,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B74">
         <v>40.299999999999997</v>
@@ -14671,7 +14680,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B75">
         <v>39</v>
@@ -14688,7 +14697,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B76">
         <v>40.799999999999997</v>
@@ -14705,7 +14714,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B77">
         <v>40.5</v>
@@ -14722,7 +14731,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B78">
         <v>40.1</v>
@@ -14739,7 +14748,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B79">
         <v>41</v>
@@ -14756,7 +14765,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80">
         <v>42.1</v>
@@ -14773,7 +14782,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B81">
         <v>41.5</v>
@@ -14790,7 +14799,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B82">
         <v>42.1</v>
@@ -14807,7 +14816,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B83">
         <v>42.2</v>
@@ -14824,7 +14833,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B84">
         <v>42.3</v>
@@ -14841,7 +14850,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B85">
         <v>43.1</v>
@@ -14858,7 +14867,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B86">
         <v>43.4</v>
@@ -14875,7 +14884,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B87">
         <v>45</v>
@@ -14892,7 +14901,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B88">
         <v>44.8</v>
@@ -14909,7 +14918,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B89">
         <v>45.8</v>
@@ -14926,7 +14935,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B90">
         <v>45.2</v>
@@ -14943,7 +14952,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B91">
         <v>45</v>
@@ -14960,7 +14969,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B92">
         <v>46</v>
@@ -14977,7 +14986,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B93">
         <v>46.2</v>
@@ -14994,7 +15003,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B94">
         <v>45.6</v>
@@ -15011,7 +15020,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B95">
         <v>53.6</v>
@@ -15028,7 +15037,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B96">
         <v>54.5</v>
@@ -15045,7 +15054,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B97">
         <v>54.5</v>
@@ -15062,7 +15071,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B98">
         <v>56</v>
@@ -15079,7 +15088,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B99">
         <v>58</v>
@@ -15096,7 +15105,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B100">
         <v>56.3</v>
@@ -15113,7 +15122,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B101">
         <v>57.9</v>
@@ -15130,7 +15139,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B102">
         <v>58.7</v>
@@ -15147,7 +15156,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B103">
         <v>61.9</v>
@@ -15164,7 +15173,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B104">
         <v>61.8</v>
@@ -15181,7 +15190,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B105">
         <v>62.5</v>
@@ -15198,7 +15207,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B106">
         <v>61.1</v>
@@ -15215,7 +15224,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B107">
         <v>62.9</v>
@@ -15232,7 +15241,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B108">
         <v>61.5</v>
@@ -15249,7 +15258,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B109">
         <v>63</v>
@@ -15266,7 +15275,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B110">
         <v>62.6</v>
@@ -15283,7 +15292,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B111">
         <v>62.9</v>
@@ -15300,7 +15309,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B112">
         <v>63.6</v>
@@ -15317,7 +15326,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B113">
         <v>62.8</v>
@@ -15334,7 +15343,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B114">
         <v>62.6</v>
@@ -15351,7 +15360,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B115">
         <v>64.099999999999994</v>
@@ -15368,7 +15377,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B116">
         <v>63.2</v>
@@ -15385,7 +15394,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B117">
         <v>63.4</v>
@@ -15402,7 +15411,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B118">
         <v>63.3</v>
@@ -15419,7 +15428,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B119">
         <v>64.8</v>
@@ -15436,7 +15445,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B120">
         <v>63.3</v>
@@ -15453,7 +15462,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B121">
         <v>63.8</v>
@@ -15470,7 +15479,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B122">
         <v>64.099999999999994</v>
@@ -15487,7 +15496,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B123">
         <v>60.2</v>
@@ -15504,7 +15513,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B124">
         <v>59.4</v>
@@ -15521,7 +15530,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B125">
         <v>69</v>
@@ -15538,7 +15547,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B126">
         <v>69.7</v>
@@ -15555,7 +15564,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B127">
         <v>68.099999999999994</v>
@@ -15572,7 +15581,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B128">
         <v>69.8</v>
@@ -15589,7 +15598,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B129">
         <v>70.099999999999994</v>
@@ -15606,7 +15615,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B130">
         <v>71.099999999999994</v>
@@ -15623,7 +15632,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B131">
         <v>70.7</v>
@@ -15640,7 +15649,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B132">
         <v>72.900000000000006</v>
@@ -15657,7 +15666,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B133">
         <v>66.8</v>
@@ -15674,7 +15683,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B134">
         <v>66.400000000000006</v>
@@ -15691,7 +15700,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B135">
         <v>79.8</v>
@@ -15708,7 +15717,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B136">
         <v>79.400000000000006</v>
@@ -15725,7 +15734,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B137">
         <v>77.8</v>
@@ -15742,7 +15751,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B138">
         <v>78.8</v>
@@ -15759,7 +15768,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B139">
         <v>79.099999999999994</v>
@@ -15776,7 +15785,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B140">
         <v>79.599999999999994</v>
@@ -15793,7 +15802,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B141">
         <v>79.7</v>
@@ -15810,7 +15819,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B142">
         <v>79.2</v>
@@ -15827,7 +15836,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B143">
         <v>79.900000000000006</v>
@@ -15844,7 +15853,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B144">
         <v>79.599999999999994</v>
@@ -15861,7 +15870,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B145">
         <v>85.4</v>
@@ -15878,7 +15887,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B146">
         <v>84.8</v>
@@ -15895,7 +15904,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B147">
         <v>85.3</v>
@@ -15912,7 +15921,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B148">
         <v>84.6</v>
@@ -15929,7 +15938,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B149">
         <v>84.8</v>
@@ -15946,7 +15955,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B150">
         <v>85.6</v>
@@ -15963,7 +15972,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B151">
         <v>85.9</v>
@@ -15980,7 +15989,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B152">
         <v>85.2</v>
@@ -15997,7 +16006,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B153">
         <v>90.2</v>
@@ -16014,7 +16023,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B154">
         <v>88.9</v>
@@ -16031,7 +16040,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B155">
         <v>89</v>
@@ -16048,7 +16057,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B156">
         <v>88.5</v>
@@ -16065,7 +16074,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B157">
         <v>88.6</v>
@@ -16082,7 +16091,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B158">
         <v>89.4</v>
@@ -16099,7 +16108,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B159">
         <v>89.9</v>
@@ -16116,7 +16125,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B160">
         <v>89.2</v>
@@ -16133,7 +16142,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B161">
         <v>89.5</v>
@@ -16150,7 +16159,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B162">
         <v>90</v>
@@ -16167,7 +16176,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B163">
         <v>90.1</v>
@@ -16184,7 +16193,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B164">
         <v>90.1</v>
@@ -16201,7 +16210,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B165">
         <v>90.1</v>
@@ -16218,7 +16227,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B166">
         <v>90</v>
@@ -16235,7 +16244,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B167">
         <v>89.6</v>
@@ -16252,7 +16261,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B168">
         <v>88.9</v>
@@ -16269,7 +16278,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B169">
         <v>89.9</v>
@@ -16286,7 +16295,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B170">
         <v>90</v>
@@ -16303,7 +16312,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B171">
         <v>89.7</v>
@@ -16320,7 +16329,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B172">
         <v>89.6</v>
@@ -16337,7 +16346,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B173">
         <v>89.8</v>
@@ -16354,7 +16363,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B174">
         <v>90.1</v>
@@ -16371,7 +16380,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B175">
         <v>90.1</v>
@@ -16388,7 +16397,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B176">
         <v>90.3</v>
@@ -16405,7 +16414,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B177">
         <v>90.6</v>
@@ -16422,7 +16431,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B178">
         <v>91.3</v>
@@ -16439,7 +16448,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B179">
         <v>92.5</v>
@@ -16456,7 +16465,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B180">
         <v>92.9</v>
@@ -16473,7 +16482,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B181">
         <v>92.9</v>
@@ -16490,7 +16499,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B182">
         <v>92.8</v>
@@ -16507,7 +16516,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B183">
         <v>92.9</v>
@@ -16524,7 +16533,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B184">
         <v>93.1</v>
@@ -16541,7 +16550,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B185">
         <v>94.3</v>
@@ -16558,7 +16567,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B186">
         <v>93.8</v>
@@ -16575,7 +16584,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B187">
         <v>93.6</v>
@@ -16592,7 +16601,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B188">
         <v>93.5</v>
@@ -16624,7 +16633,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>21.1</v>
@@ -16641,7 +16650,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2">
         <v>20.8</v>
@@ -16658,7 +16667,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -16675,7 +16684,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B4">
         <v>20.2</v>
@@ -16692,7 +16701,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B5">
         <v>20.9</v>
@@ -16709,7 +16718,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6">
         <v>20.3</v>
@@ -16726,7 +16735,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7">
         <v>20.7</v>
@@ -16743,7 +16752,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B8">
         <v>21.4</v>
@@ -16760,7 +16769,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9">
         <v>19.8</v>
@@ -16777,7 +16786,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10">
         <v>19.899999999999999</v>
@@ -16794,7 +16803,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11">
         <v>19.8</v>
@@ -16811,7 +16820,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12">
         <v>20.7</v>
@@ -16828,7 +16837,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -16845,7 +16854,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B14">
         <v>21.1</v>
@@ -16862,7 +16871,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B15">
         <v>21.4</v>
@@ -16879,7 +16888,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B16">
         <v>21.5</v>
@@ -16896,7 +16905,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B17">
         <v>22.5</v>
@@ -16913,7 +16922,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B18">
         <v>21.9</v>
@@ -16930,7 +16939,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19">
         <v>24.1</v>
@@ -16947,7 +16956,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B20">
         <v>24.2</v>
@@ -16964,7 +16973,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21">
         <v>23.2</v>
@@ -16981,7 +16990,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22">
         <v>24.2</v>
@@ -16998,7 +17007,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B23">
         <v>24.3</v>
@@ -17015,7 +17024,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -17032,7 +17041,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25">
         <v>23.2</v>
@@ -17049,7 +17058,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B26">
         <v>24.3</v>
@@ -17066,7 +17075,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B27">
         <v>25.7</v>
@@ -17083,7 +17092,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28">
         <v>24.8</v>
@@ -17100,7 +17109,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29">
         <v>25.8</v>
@@ -17117,7 +17126,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B30">
         <v>26.4</v>
@@ -17134,7 +17143,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31">
         <v>27.8</v>
@@ -17151,7 +17160,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B32">
         <v>28</v>
@@ -17168,7 +17177,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B33">
         <v>27.7</v>
@@ -17185,7 +17194,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B34">
         <v>33.1</v>
@@ -17202,7 +17211,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B35">
         <v>32.799999999999997</v>
@@ -17219,7 +17228,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36">
         <v>31.3</v>
@@ -17236,7 +17245,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B37">
         <v>32.299999999999997</v>
@@ -17253,7 +17262,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -17270,7 +17279,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B39">
         <v>34.799999999999997</v>
@@ -17287,7 +17296,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B40">
         <v>34.700000000000003</v>
@@ -17304,7 +17313,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41">
         <v>34.6</v>
@@ -17321,7 +17330,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B42">
         <v>34.700000000000003</v>
@@ -17338,7 +17347,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43">
         <v>34.700000000000003</v>
@@ -17355,7 +17364,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B44">
         <v>33.4</v>
@@ -17372,7 +17381,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B45">
         <v>33.700000000000003</v>
@@ -17389,7 +17398,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B46">
         <v>33.700000000000003</v>
@@ -17406,7 +17415,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B47">
         <v>35.4</v>
@@ -17423,7 +17432,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B48">
         <v>34.700000000000003</v>
@@ -17440,7 +17449,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B49">
         <v>34.200000000000003</v>
@@ -17457,7 +17466,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B50">
         <v>33.9</v>
@@ -17474,7 +17483,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B51">
         <v>37.799999999999997</v>
@@ -17491,7 +17500,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B52">
         <v>39.1</v>
@@ -17508,7 +17517,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B53">
         <v>39.6</v>
@@ -17525,7 +17534,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B54">
         <v>39.1</v>
@@ -17542,7 +17551,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B55">
         <v>42.3</v>
@@ -17559,7 +17568,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B56">
         <v>42.1</v>
@@ -17576,7 +17585,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B57">
         <v>42.3</v>
@@ -17593,7 +17602,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B58">
         <v>43.4</v>
@@ -17610,7 +17619,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B59">
         <v>42.7</v>
@@ -17627,7 +17636,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B60">
         <v>42.4</v>
@@ -17644,7 +17653,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61">
         <v>42.6</v>
@@ -17661,7 +17670,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B62">
         <v>42.3</v>
@@ -17678,7 +17687,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -17695,7 +17704,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B64">
         <v>43.1</v>
@@ -17712,7 +17721,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B65">
         <v>44.3</v>
@@ -17729,7 +17738,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B66">
         <v>43.1</v>
@@ -17746,7 +17755,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B67">
         <v>43.7</v>
@@ -17763,7 +17772,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B68">
         <v>41.9</v>
@@ -17780,7 +17789,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B69">
         <v>43.2</v>
@@ -17797,7 +17806,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B70">
         <v>43.8</v>
@@ -17814,7 +17823,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B71">
         <v>44.3</v>
@@ -17831,7 +17840,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B72">
         <v>43.7</v>
@@ -17848,7 +17857,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B73">
         <v>50.3</v>
@@ -17865,7 +17874,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B74">
         <v>44.6</v>
@@ -17882,7 +17891,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B75">
         <v>50.5</v>
@@ -17899,7 +17908,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B76">
         <v>52.4</v>
@@ -17916,7 +17925,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B77">
         <v>48.9</v>
@@ -17933,7 +17942,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B78">
         <v>49.3</v>
@@ -17950,7 +17959,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B79">
         <v>49.8</v>
@@ -17967,7 +17976,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B80">
         <v>49.1</v>
@@ -17984,7 +17993,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B81">
         <v>50.6</v>
@@ -18001,7 +18010,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B82">
         <v>59.8</v>
@@ -18018,7 +18027,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B83">
         <v>59.3</v>
@@ -18035,7 +18044,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B84">
         <v>56.9</v>
@@ -18052,7 +18061,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B85">
         <v>59.3</v>
@@ -18069,7 +18078,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B86">
         <v>61.1</v>
@@ -18086,7 +18095,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B87">
         <v>61</v>
@@ -18103,7 +18112,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B88">
         <v>60.5</v>
@@ -18120,7 +18129,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B89">
         <v>62.2</v>
@@ -18137,7 +18146,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B90">
         <v>60.7</v>
@@ -18154,7 +18163,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B91">
         <v>62.8</v>
@@ -18171,7 +18180,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B92">
         <v>67</v>
@@ -18188,7 +18197,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B93">
         <v>64.099999999999994</v>
@@ -18205,7 +18214,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B94">
         <v>70</v>
@@ -18222,7 +18231,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B95">
         <v>69.099999999999994</v>
@@ -18239,7 +18248,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B96">
         <v>69</v>
@@ -18256,7 +18265,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B97">
         <v>69.2</v>
@@ -18273,7 +18282,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B98">
         <v>70.400000000000006</v>
@@ -18290,7 +18299,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B99">
         <v>70.400000000000006</v>
@@ -18307,7 +18316,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B100">
         <v>70.8</v>
@@ -18324,7 +18333,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B101">
         <v>73.7</v>
@@ -18341,7 +18350,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B102">
         <v>72.900000000000006</v>
@@ -18358,7 +18367,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B103">
         <v>72.400000000000006</v>
@@ -18375,7 +18384,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B104">
         <v>73.7</v>
@@ -18392,7 +18401,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B105">
         <v>74.8</v>
@@ -18409,7 +18418,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B106">
         <v>74.2</v>
@@ -18426,7 +18435,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B107">
         <v>74.5</v>
@@ -18443,7 +18452,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B108">
         <v>74.599999999999994</v>
@@ -18460,7 +18469,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B109">
         <v>74.400000000000006</v>
@@ -18477,7 +18486,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B110">
         <v>74.400000000000006</v>
@@ -18494,7 +18503,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B111">
         <v>74.400000000000006</v>
@@ -18511,7 +18520,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B112">
         <v>74.900000000000006</v>
@@ -18528,7 +18537,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B113">
         <v>74.5</v>
@@ -18545,7 +18554,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B114">
         <v>75.099999999999994</v>
@@ -18562,7 +18571,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B115">
         <v>74.5</v>
@@ -18579,7 +18588,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B116">
         <v>75</v>
@@ -18596,7 +18605,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B117">
         <v>75.900000000000006</v>
@@ -18613,7 +18622,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B118">
         <v>75.5</v>
@@ -18630,7 +18639,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B119">
         <v>75.400000000000006</v>
@@ -18647,7 +18656,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B120">
         <v>75.5</v>
@@ -18664,7 +18673,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B121">
         <v>75.8</v>
@@ -18681,7 +18690,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B122">
         <v>76</v>
@@ -18698,7 +18707,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B123">
         <v>76.2</v>
@@ -18715,7 +18724,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B124">
         <v>76.2</v>
@@ -18732,7 +18741,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B125">
         <v>76.400000000000006</v>
@@ -18749,7 +18758,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B126">
         <v>75.8</v>
@@ -18766,7 +18775,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B127">
         <v>75</v>
@@ -18783,7 +18792,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B128">
         <v>76.599999999999994</v>
@@ -18800,7 +18809,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B129">
         <v>81.400000000000006</v>
@@ -18817,7 +18826,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B130">
         <v>82</v>
@@ -18834,7 +18843,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B131">
         <v>81.5</v>
@@ -18851,7 +18860,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B132">
         <v>81.3</v>
@@ -18868,7 +18877,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B133">
         <v>81.8</v>
@@ -18885,7 +18894,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B134">
         <v>82.5</v>
@@ -18902,7 +18911,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B135">
         <v>82.4</v>
@@ -18919,7 +18928,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B136">
         <v>82.8</v>
@@ -18936,7 +18945,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B137">
         <v>82.6</v>
@@ -18953,7 +18962,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B138">
         <v>83.6</v>
@@ -18970,7 +18979,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B139">
         <v>83.2</v>
@@ -18987,7 +18996,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B140">
         <v>83.6</v>
@@ -19004,7 +19013,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B141">
         <v>83.6</v>
@@ -19021,7 +19030,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B142">
         <v>84.3</v>
@@ -19038,7 +19047,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B143">
         <v>82.8</v>
@@ -19055,7 +19064,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B144">
         <v>83.7</v>
@@ -19072,7 +19081,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B145">
         <v>83.8</v>
@@ -19089,7 +19098,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B146">
         <v>89.3</v>
@@ -19106,7 +19115,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B147">
         <v>88.6</v>
@@ -19123,7 +19132,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B148">
         <v>89</v>
@@ -19140,7 +19149,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B149">
         <v>88.8</v>
@@ -19157,7 +19166,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B150">
         <v>90.1</v>
@@ -19174,7 +19183,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B151">
         <v>89.9</v>
@@ -19191,7 +19200,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B152">
         <v>90</v>
@@ -19208,7 +19217,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B153">
         <v>90</v>
@@ -19225,7 +19234,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B154">
         <v>90.2</v>
@@ -19242,7 +19251,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B155">
         <v>90.2</v>
@@ -19259,7 +19268,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B156">
         <v>90.2</v>
@@ -19276,7 +19285,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B157">
         <v>90.5</v>
@@ -19293,7 +19302,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B158">
         <v>90.6</v>
@@ -19310,7 +19319,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B159">
         <v>90.9</v>
@@ -19327,7 +19336,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B160">
         <v>90.5</v>
@@ -19344,7 +19353,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B161">
         <v>91.3</v>
@@ -19361,7 +19370,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B162">
         <v>92.4</v>
@@ -19378,7 +19387,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B163">
         <v>92.8</v>
@@ -19395,7 +19404,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B164">
         <v>92.8</v>
@@ -19412,7 +19421,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B165">
         <v>93.3</v>
@@ -19429,7 +19438,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B166">
         <v>93.1</v>
@@ -19446,7 +19455,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B167">
         <v>93.1</v>
@@ -19463,7 +19472,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B168">
         <v>93.8</v>
@@ -19480,7 +19489,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B169">
         <v>93.8</v>
@@ -19497,7 +19506,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B170">
         <v>93.6</v>
@@ -19514,7 +19523,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B171">
         <v>93.5</v>
@@ -19546,24 +19555,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>19.600000000000001</v>
@@ -19580,7 +19589,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B3">
         <v>19.5</v>
@@ -19597,7 +19606,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B4">
         <v>19.600000000000001</v>
@@ -19614,7 +19623,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B5">
         <v>20.7</v>
@@ -19631,7 +19640,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B6">
         <v>20.8</v>
@@ -19648,7 +19657,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7">
         <v>19.8</v>
@@ -19665,7 +19674,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -19682,7 +19691,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B9">
         <v>20.2</v>
@@ -19699,7 +19708,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B10">
         <v>20.2</v>
@@ -19716,7 +19725,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B11">
         <v>20.2</v>
@@ -19733,7 +19742,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B12">
         <v>19.8</v>
@@ -19750,7 +19759,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13">
         <v>20.2</v>
@@ -19767,7 +19776,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B14">
         <v>20.6</v>
@@ -19784,7 +19793,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B15">
         <v>20.7</v>
@@ -19801,7 +19810,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B16">
         <v>20.9</v>
@@ -19818,7 +19827,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B17">
         <v>20.399999999999999</v>
@@ -19835,7 +19844,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B18">
         <v>20.3</v>
@@ -19852,7 +19861,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B19">
         <v>20.399999999999999</v>
@@ -19869,7 +19878,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B20">
         <v>20.5</v>
@@ -19886,7 +19895,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B21">
         <v>20.5</v>
@@ -19903,7 +19912,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B22">
         <v>20.5</v>
@@ -19920,7 +19929,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B23">
         <v>20.5</v>
@@ -19937,7 +19946,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B24">
         <v>20.5</v>
@@ -19954,7 +19963,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B25">
         <v>20.5</v>
@@ -19971,7 +19980,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B26">
         <v>19.899999999999999</v>
@@ -19988,7 +19997,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B27">
         <v>20.399999999999999</v>
@@ -20005,7 +20014,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B28">
         <v>20.5</v>
@@ -20022,7 +20031,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B29">
         <v>20.9</v>
@@ -20039,7 +20048,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B30">
         <v>22.2</v>
@@ -20056,7 +20065,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B31">
         <v>21.9</v>
@@ -20073,7 +20082,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B32">
         <v>22.7</v>
@@ -20090,7 +20099,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B33">
         <v>21.9</v>
@@ -20107,7 +20116,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B34">
         <v>21.2</v>
@@ -20124,7 +20133,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B35">
         <v>21.6</v>
@@ -20141,7 +20150,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B36">
         <v>21.8</v>
@@ -20158,7 +20167,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B37">
         <v>22.6</v>
@@ -20175,7 +20184,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B38">
         <v>22.1</v>
@@ -20192,7 +20201,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B39">
         <v>22</v>
@@ -20209,7 +20218,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -20226,7 +20235,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B41">
         <v>24.1</v>
@@ -20243,7 +20252,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B42">
         <v>24.9</v>
@@ -20260,7 +20269,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B43">
         <v>25.4</v>
@@ -20277,7 +20286,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B44">
         <v>25.8</v>
@@ -20294,7 +20303,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B45">
         <v>25.9</v>
@@ -20311,7 +20320,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B46">
         <v>26.1</v>
@@ -20328,7 +20337,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B47">
         <v>25.6</v>
@@ -20345,7 +20354,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B48">
         <v>25.8</v>
@@ -20362,7 +20371,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B49">
         <v>26</v>
@@ -20379,7 +20388,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B50">
         <v>26</v>
@@ -20396,7 +20405,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B51">
         <v>26.1</v>
@@ -20413,7 +20422,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B52">
         <v>21.5</v>
@@ -20430,7 +20439,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B53">
         <v>20.5</v>
@@ -20447,7 +20456,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B54">
         <v>27</v>
@@ -20464,7 +20473,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B55">
         <v>21.8</v>
@@ -20481,7 +20490,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B56">
         <v>33.5</v>
@@ -20498,7 +20507,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B57">
         <v>34.299999999999997</v>
@@ -20515,7 +20524,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B58">
         <v>34.200000000000003</v>
@@ -20532,7 +20541,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B59">
         <v>33.200000000000003</v>
@@ -20549,7 +20558,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B60">
         <v>33.200000000000003</v>
@@ -20566,7 +20575,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B61">
         <v>33.200000000000003</v>
@@ -20583,7 +20592,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B62">
         <v>33.200000000000003</v>
@@ -20600,7 +20609,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B63">
         <v>32.9</v>
@@ -20617,7 +20626,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B64">
         <v>31.8</v>
@@ -20634,7 +20643,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B65">
         <v>32.5</v>
@@ -20651,7 +20660,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B66">
         <v>34.5</v>
@@ -20668,7 +20677,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B67">
         <v>33.9</v>
@@ -20685,7 +20694,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B68">
         <v>39.6</v>
@@ -20702,7 +20711,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B69">
         <v>39.700000000000003</v>
@@ -20719,7 +20728,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B70">
         <v>42.6</v>
@@ -20736,7 +20745,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B71">
         <v>42.9</v>
@@ -20753,7 +20762,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B72">
         <v>42.5</v>
@@ -20770,7 +20779,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B73">
         <v>42.2</v>
@@ -20787,7 +20796,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B74">
         <v>48.4</v>
@@ -20804,7 +20813,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B75">
         <v>47.9</v>
@@ -20821,7 +20830,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B76">
         <v>52</v>
@@ -20838,7 +20847,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B77">
         <v>52.4</v>
@@ -20855,7 +20864,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B78">
         <v>51.6</v>
@@ -20872,7 +20881,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B79">
         <v>52.1</v>
@@ -20889,7 +20898,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B80">
         <v>59.1</v>
@@ -20906,7 +20915,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B81">
         <v>58.1</v>
@@ -20923,7 +20932,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B82">
         <v>61.3</v>
@@ -20940,7 +20949,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B83">
         <v>62.2</v>
@@ -20957,7 +20966,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B84">
         <v>62</v>
@@ -20974,7 +20983,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B85">
         <v>62.4</v>
@@ -20991,7 +21000,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B86">
         <v>61.4</v>
@@ -21008,7 +21017,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B87">
         <v>65.599999999999994</v>
@@ -21025,7 +21034,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B88">
         <v>66.3</v>
@@ -21042,7 +21051,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B89">
         <v>66</v>
@@ -21059,7 +21068,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B90">
         <v>65.599999999999994</v>
@@ -21076,7 +21085,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B91">
         <v>65.8</v>
@@ -21093,7 +21102,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B92">
         <v>64.400000000000006</v>
@@ -21110,7 +21119,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B93">
         <v>71.5</v>
@@ -21127,7 +21136,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B94">
         <v>71</v>
@@ -21144,7 +21153,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B95">
         <v>73.599999999999994</v>
@@ -21161,7 +21170,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B96">
         <v>73.900000000000006</v>
@@ -21178,7 +21187,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B97">
         <v>76.099999999999994</v>
@@ -21195,7 +21204,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B98">
         <v>77.3</v>
@@ -21212,7 +21221,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B99">
         <v>78</v>
@@ -21229,7 +21238,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B100">
         <v>78</v>
@@ -21246,7 +21255,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B101">
         <v>78</v>
@@ -21263,7 +21272,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B102">
         <v>77.599999999999994</v>
@@ -21280,7 +21289,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B103">
         <v>77.8</v>
@@ -21297,7 +21306,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B104">
         <v>78.5</v>
@@ -21314,7 +21323,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B105">
         <v>78.5</v>
@@ -21331,7 +21340,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B106">
         <v>79</v>
@@ -21348,7 +21357,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B107">
         <v>79</v>
@@ -21365,7 +21374,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B108">
         <v>78</v>
@@ -21382,7 +21391,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B109">
         <v>79.3</v>
@@ -21399,7 +21408,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B110">
         <v>80</v>
@@ -21416,7 +21425,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B111">
         <v>79.400000000000006</v>
@@ -21433,7 +21442,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B112">
         <v>80.099999999999994</v>
@@ -21450,7 +21459,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B113">
         <v>81.2</v>
@@ -21467,7 +21476,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B114">
         <v>81.2</v>
@@ -21484,7 +21493,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B115">
         <v>81.3</v>
@@ -21501,7 +21510,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B116">
         <v>82.5</v>
@@ -21518,7 +21527,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B117">
         <v>81.400000000000006</v>
@@ -21535,7 +21544,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B118">
         <v>86.1</v>
@@ -21552,7 +21561,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B119">
         <v>86.3</v>
@@ -21569,7 +21578,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B120">
         <v>87.5</v>
@@ -21586,7 +21595,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B121">
         <v>86.5</v>
@@ -21603,7 +21612,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B122">
         <v>87.3</v>
@@ -21620,7 +21629,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B123">
         <v>88.2</v>
@@ -21637,7 +21646,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B124">
         <v>87.6</v>
@@ -21654,7 +21663,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B125">
         <v>88.1</v>
@@ -21671,7 +21680,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B126">
         <v>89</v>
@@ -21688,7 +21697,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B127">
         <v>89</v>
@@ -21705,7 +21714,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B128">
         <v>89.8</v>
@@ -21722,7 +21731,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B129">
         <v>89.5</v>
@@ -21739,7 +21748,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B130">
         <v>89.6</v>
@@ -21756,7 +21765,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B131">
         <v>89.4</v>
@@ -21773,7 +21782,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B132">
         <v>89.6</v>
@@ -21790,7 +21799,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B133">
         <v>89.1</v>
@@ -21807,7 +21816,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B134">
         <v>89.3</v>
@@ -21824,7 +21833,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B135">
         <v>89.4</v>
@@ -21841,7 +21850,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B136">
         <v>90.5</v>
@@ -21858,7 +21867,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B137">
         <v>89.8</v>
@@ -21875,7 +21884,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B138">
         <v>89.9</v>
@@ -21892,7 +21901,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B139">
         <v>89.9</v>
@@ -21909,7 +21918,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B140">
         <v>90.4</v>
@@ -21926,7 +21935,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B141">
         <v>90.3</v>
@@ -21943,7 +21952,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B142">
         <v>90.1</v>
@@ -21960,7 +21969,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B143">
         <v>90.7</v>
@@ -21977,7 +21986,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B144">
         <v>90.5</v>
@@ -21994,7 +22003,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B145">
         <v>90.4</v>
@@ -22011,7 +22020,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B146">
         <v>90.5</v>
@@ -22028,7 +22037,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B147">
         <v>90.8</v>
@@ -22045,7 +22054,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B148">
         <v>91.5</v>
@@ -22062,7 +22071,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B149">
         <v>90.6</v>
@@ -22079,7 +22088,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B150">
         <v>91.1</v>
@@ -22096,7 +22105,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B151">
         <v>91.1</v>
@@ -22113,7 +22122,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B152">
         <v>91.2</v>
@@ -22130,7 +22139,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B153">
         <v>91.7</v>
@@ -22147,7 +22156,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B154">
         <v>91</v>
@@ -22164,7 +22173,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B155">
         <v>91.2</v>
@@ -22181,7 +22190,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B156">
         <v>91.2</v>
@@ -22198,7 +22207,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B157">
         <v>91.3</v>
@@ -22215,7 +22224,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B158">
         <v>91.4</v>
@@ -22232,7 +22241,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B159">
         <v>91.6</v>
@@ -22249,7 +22258,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B160">
         <v>91.8</v>
@@ -22266,7 +22275,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B161">
         <v>91.8</v>
@@ -22283,7 +22292,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B162">
         <v>92</v>
@@ -22300,7 +22309,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B163">
         <v>93.1</v>
@@ -22317,7 +22326,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B164">
         <v>93.3</v>
@@ -22334,7 +22343,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B165">
         <v>93.3</v>
@@ -22351,7 +22360,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B166">
         <v>93.5</v>
@@ -22368,7 +22377,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B167">
         <v>93.6</v>
@@ -22385,7 +22394,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B168">
         <v>93.7</v>
@@ -22402,7 +22411,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B169">
         <v>93.8</v>
@@ -22419,7 +22428,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B170">
         <v>93.6</v>
@@ -22436,7 +22445,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B171">
         <v>93.6</v>
@@ -22453,7 +22462,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B172">
         <v>93.5</v>
